--- a/commiters.xlsx
+++ b/commiters.xlsx
@@ -40,21 +40,21 @@
     <t>Niculescu Alin</t>
   </si>
   <si>
+    <t>Huluta Liviu</t>
+  </si>
+  <si>
     <t>Deak Attila Robert</t>
   </si>
   <si>
-    <t>Huluta Liviu</t>
-  </si>
-  <si>
     <t>Ples Petru</t>
   </si>
   <si>
+    <t>Buciu Roxana Olimpia</t>
+  </si>
+  <si>
     <t>Dobrescu Bianca-Maria</t>
   </si>
   <si>
-    <t>Buciu Roxana Olimpia</t>
-  </si>
-  <si>
     <t>Varga Attila</t>
   </si>
   <si>
@@ -67,10 +67,10 @@
     <t>Monica Huet</t>
   </si>
   <si>
+    <t>Kallo-Stefan Helen</t>
+  </si>
+  <si>
     <t>Tudurean Stefan-Laurentiu</t>
-  </si>
-  <si>
-    <t>Kallo-Stefan Helen</t>
   </si>
   <si>
     <t>Maria Delia Muresan</t>
@@ -475,7 +475,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -483,7 +483,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -491,7 +491,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -499,7 +499,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>85</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -507,7 +507,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -523,7 +523,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -531,7 +531,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -539,7 +539,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -547,7 +547,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -555,7 +555,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -563,7 +563,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -571,7 +571,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>356</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/commiters.xlsx
+++ b/commiters.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>commiter</t>
   </si>
@@ -22,6 +22,15 @@
     <t>cnt</t>
   </si>
   <si>
+    <t>Esser Michael</t>
+  </si>
+  <si>
+    <t>Syed Anas</t>
+  </si>
+  <si>
+    <t>Peier Jeremias</t>
+  </si>
+  <si>
     <t>Florian Thiévent</t>
   </si>
   <si>
@@ -31,18 +40,48 @@
     <t>Villvock Martin</t>
   </si>
   <si>
+    <t>Schüpbach Kaspar</t>
+  </si>
+  <si>
     <t>Iona Isan</t>
   </si>
   <si>
+    <t>Spirig Lukas</t>
+  </si>
+  <si>
+    <t>Bandi Yves</t>
+  </si>
+  <si>
+    <t>Ramseier Reto</t>
+  </si>
+  <si>
     <t>Lorinczi Laszlo</t>
   </si>
   <si>
+    <t>Bajkowski Mariusz</t>
+  </si>
+  <si>
     <t>Niculescu Alin</t>
   </si>
   <si>
+    <t>Bröchin Manuel</t>
+  </si>
+  <si>
+    <t>Bossi Valentin</t>
+  </si>
+  <si>
+    <t>Schäfer Christoph</t>
+  </si>
+  <si>
     <t>Huluta Liviu</t>
   </si>
   <si>
+    <t>Schiegg Reto</t>
+  </si>
+  <si>
+    <t>De Filippo Claudio Antonio</t>
+  </si>
+  <si>
     <t>Deak Attila Robert</t>
   </si>
   <si>
@@ -67,6 +106,9 @@
     <t>Monica Huet</t>
   </si>
   <si>
+    <t>Bedo David</t>
+  </si>
+  <si>
     <t>Kallo-Stefan Helen</t>
   </si>
   <si>
@@ -76,7 +118,19 @@
     <t>Maria Delia Muresan</t>
   </si>
   <si>
+    <t>UNKNOWN_OR_SYSTEM</t>
+  </si>
+  <si>
     <t>Dan-Mircea Mascas</t>
+  </si>
+  <si>
+    <t>Vogt Daniel</t>
+  </si>
+  <si>
+    <t>Stalder Yves</t>
+  </si>
+  <si>
+    <t>Verstoep Arjan</t>
   </si>
 </sst>
 </file>
@@ -408,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,7 +481,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -435,7 +489,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -443,7 +497,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -451,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -459,7 +513,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -467,7 +521,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -475,7 +529,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>49</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -483,7 +537,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -491,7 +545,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>88</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -499,7 +553,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>109</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -507,7 +561,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>116</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -515,7 +569,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -523,7 +577,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>160</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -531,7 +585,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>160</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -539,7 +593,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>216</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -547,7 +601,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>294</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -555,7 +609,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>300</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -563,7 +617,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>360</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -571,7 +625,151 @@
         <v>20</v>
       </c>
       <c r="B20">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
         <v>390</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>634</v>
       </c>
     </row>
   </sheetData>
